--- a/examples/sources/data/unsolved/to_schedule/2019-02-06.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-06.xlsx
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" s="2">
         <v>43502</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" s="2">
         <v>43502</v>
@@ -4754,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" s="2">
         <v>43502</v>
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" s="2">
         <v>43502</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" s="2">
         <v>43502</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O154" s="2">
         <v>43502</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155">
         <v>1</v>
